--- a/biology/Botanique/Phyllanthus_nyale/Phyllanthus_nyale.xlsx
+++ b/biology/Botanique/Phyllanthus_nyale/Phyllanthus_nyale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllanthus nyale Petra Hoffm. &amp; Cheek  est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Phyllanthus, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique nyale fait référence à Nyale, dans les monts Bakossi, le seul lieu où elle a été collectée à deux reprises en 1998[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique nyale fait référence à Nyale, dans les monts Bakossi, le seul lieu où elle a été collectée à deux reprises en 1998.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe robuste qui peut atteindre 35 cm de hauteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe robuste qui peut atteindre 35 cm de hauteur.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est celui de la forêt submontagnarde, à une altitude de 1 000 m environ[3].
-Phyllanthus nyale est une plante endémique du Cameroun, très rare. Cette espèce est connue seulement du rocher Nyale, un inselberg escarpé situé dans les monts Bakossi, à l'est de Nyandong, sur le sentier menant à Kodmin [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est celui de la forêt submontagnarde, à une altitude de 1 000 m environ.
+Phyllanthus nyale est une plante endémique du Cameroun, très rare. Cette espèce est connue seulement du rocher Nyale, un inselberg escarpé situé dans les monts Bakossi, à l'est de Nyandong, sur le sentier menant à Kodmin .
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phyllanthus nyale est une espèce classée en danger critique d'extinction à cause de sa  rareté (moins de 50 individus sur chacun des deux sites recensés) et du risque de destruction de son habitat par l'agriculture[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyllanthus nyale est une espèce classée en danger critique d'extinction à cause de sa  rareté (moins de 50 individus sur chacun des deux sites recensés) et du risque de destruction de son habitat par l'agriculture.
 </t>
         </is>
       </c>
